--- a/CIS663/CIS663.xlsx
+++ b/CIS663/CIS663.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Live 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Week 1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Live 2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Week 3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t xml:space="preserve">participation</t>
   </si>
@@ -184,6 +185,180 @@
   </si>
   <si>
     <t xml:space="preserve">Identification: takes biometric data nd the system returns either an identity or an unknown response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singularities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where ridge lines show distinctive shapes – high curvature, frequent termination, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singularities or singular retions may be classified into three topologies:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whorl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fingerprint matching algorithms align fingerprint images according to landmark or a center point called core, which corresponds to the center of the northernmost loop type singularity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features in fingerprints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ridges and valleys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loops, whorl, arches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local ridge orientation and frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singular point:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">five main fingerprint classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutiae Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutiae or Galton’s characteristics represent how the ridges behave:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bifurcation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to be represented numerically, the coordinates of the points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additionally, need the angle of the ridge to the x-axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singularity detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancement and binarization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutiae extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singularity Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poincare Index: P(i,j) at [i,j]:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed curve C is an ordered sequence of orientations such that [i,j] is an internal point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is computed by algebraically summing the orientation differences between adjacent elements of C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutiae Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional Approach:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binarization: fingerprint gray scale image is converted into a binary image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// go from 0-255 color values to only 0 and 1. Can use thresholds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinning: the binary image is submitted to a thinning state (the ridge-line thickness is reduced to one pixel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detection: simple image scan llows you to detect the pixels that correspond to minutiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Gray-Scale Minutiae Detection:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridge-line is made of a set of points that are the local maxima with respect to the direction orthogonal to the ridge-line itself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of starting points is determined (according to a square-mesh grid superimposed on the image)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">For each point, the algorithm finds the nearest ridge-line and follows it until a </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bifurcation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">termination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is reached</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -194,7 +369,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -216,6 +391,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,12 +443,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -281,6 +468,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>277560</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2458080" y="5940000"/>
+          <a:ext cx="4321800" cy="1747440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -292,13 +521,13 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -306,7 +535,7 @@
       <c r="B3" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -314,67 +543,67 @@
       <c r="B4" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -400,60 +629,60 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -475,150 +704,150 @@
   </sheetPr>
   <dimension ref="B3:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -631,4 +860,226 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:M60"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CIS663/CIS663.xlsx
+++ b/CIS663/CIS663.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captain\Syracuse\Syracuse\CIS663\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D194A53F-C8E9-4E24-AF47-B4E17C140DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5C688-7E1E-41B4-BA87-79FBE108CAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Live 1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Live 7" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet2" sheetId="13" r:id="rId12"/>
     <sheet name="Live 8" sheetId="14" r:id="rId13"/>
+    <sheet name="Live 9" sheetId="15" r:id="rId14"/>
+    <sheet name="Live 10" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="367">
   <si>
     <t>participation</t>
   </si>
@@ -1140,6 +1142,63 @@
   </si>
   <si>
     <t>Milestone 5 due next week</t>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+  </si>
+  <si>
+    <t>no issue</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>N((0*.85)+(5*.13)+(60*.015)+(24*60*0.005))</t>
+  </si>
+  <si>
+    <t>generated through gaussian distribution, using mean and std dev</t>
+  </si>
+  <si>
+    <t>need to use random numbers for test cases</t>
+  </si>
+  <si>
+    <t>7-8 minutes for presentation, and 2 minutes for questions</t>
+  </si>
+  <si>
+    <t>Presentations</t>
+  </si>
+  <si>
+    <t>Add equations to slides</t>
+  </si>
+  <si>
+    <t>Show results</t>
+  </si>
+  <si>
+    <t>Focus on previous work for only 1-2 minutes</t>
+  </si>
+  <si>
+    <t>Upload to 2SU BEFORE presenting</t>
+  </si>
+  <si>
+    <t>Paper: just the research paper</t>
+  </si>
+  <si>
+    <t>Presentation: PowerPoint</t>
+  </si>
+  <si>
+    <t>Deliverables: for the research group, the source code/supporting files</t>
   </si>
 </sst>
 </file>
@@ -3288,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE62E40-28F7-4B09-945A-D4A0410D09A1}">
   <dimension ref="C2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -3703,107 +3762,329 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BAE3C0-18D7-4EED-9E17-8EF397D15473}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0.99</v>
+      </c>
+      <c r="O14">
+        <f>1-N14</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O15">
+        <f>1-N15</f>
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+      <c r="O16">
+        <f>O14*O15</f>
+        <v>9.9500000000000092E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>342</v>
+      </c>
+      <c r="O17">
+        <f>0.99*0.005</f>
+        <v>4.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>343</v>
+      </c>
+      <c r="O18">
+        <f>O16+O17</f>
+        <v>1.490000000000001E-2</v>
+      </c>
+      <c r="P18">
+        <f>0.99*0.005/O18</f>
+        <v>0.33221476510067094</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293FD307-80DD-47B3-AD8A-DD5EC542DF09}">
+  <dimension ref="B2:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>_xlfn.NORM.DIST(E5,$E$10,$E$11,TRUE)</f>
+        <v>7.8676048446685957E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6F9321-071D-4283-B63E-65CA57E71080}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>338</v>
+      <c r="B6" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>335</v>
+      <c r="B7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>336</v>
+      <c r="B9" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>337</v>
+      <c r="B10" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>339</v>
+      <c r="B11" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>345</v>
+      <c r="B13">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="C13">
+        <f>B13/1000</f>
+        <v>4294967.2960000001</v>
+      </c>
+      <c r="D13">
+        <f>C13/1000</f>
+        <v>4294.9672959999998</v>
+      </c>
+      <c r="E13">
+        <f>D13/1000</f>
+        <v>4.2949672959999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="C14">
+        <f>B14/1000</f>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="D14">
+        <f>C14/1000</f>
+        <v>6.5535999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <f>D14/1000</f>
+        <v>6.5535999999999991E-5</v>
       </c>
     </row>
   </sheetData>
